--- a/Data entry_Karlee.xlsx
+++ b/Data entry_Karlee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 winter\psyc 259 data science\Ziyi-workflow-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB4E6EB-1E39-4D43-BD16-08AACD378926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925AB723-31B4-43FC-97D4-D726164FD627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,493 +36,656 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>4c</t>
-  </si>
-  <si>
-    <t>5a</t>
-  </si>
-  <si>
-    <t>5b</t>
-  </si>
-  <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>7b</t>
-  </si>
-  <si>
-    <t>7c</t>
-  </si>
-  <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t>8b</t>
-  </si>
-  <si>
-    <t>9a</t>
-  </si>
-  <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>9c</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>10c</t>
-  </si>
-  <si>
-    <t>40a</t>
-  </si>
-  <si>
-    <t>44c</t>
-  </si>
-  <si>
-    <t>45c</t>
-  </si>
-  <si>
-    <t>46c</t>
-  </si>
-  <si>
-    <t>47c</t>
-  </si>
-  <si>
-    <t>51c</t>
-  </si>
-  <si>
-    <t>52c</t>
-  </si>
-  <si>
-    <t>53c</t>
-  </si>
-  <si>
-    <t>54c</t>
-  </si>
-  <si>
-    <t>55c</t>
-  </si>
-  <si>
-    <t>56c</t>
-  </si>
-  <si>
-    <t>57c</t>
-  </si>
-  <si>
-    <t>58c</t>
-  </si>
-  <si>
-    <t>60c</t>
-  </si>
-  <si>
-    <t>63c</t>
-  </si>
-  <si>
-    <t>64c</t>
-  </si>
-  <si>
-    <t>66c</t>
-  </si>
-  <si>
-    <t>70c</t>
-  </si>
-  <si>
-    <t>72c</t>
-  </si>
-  <si>
-    <t>73c</t>
-  </si>
-  <si>
-    <t>121c</t>
-  </si>
-  <si>
-    <t>116c</t>
-  </si>
-  <si>
-    <t>115c</t>
-  </si>
-  <si>
-    <t>114c</t>
-  </si>
-  <si>
-    <t>112c</t>
-  </si>
-  <si>
-    <t>111c</t>
-  </si>
-  <si>
-    <t>110c</t>
-  </si>
-  <si>
-    <t>104c</t>
-  </si>
-  <si>
-    <t>101c</t>
-  </si>
-  <si>
-    <t>100c</t>
-  </si>
-  <si>
-    <t>99c</t>
-  </si>
-  <si>
-    <t>96c</t>
-  </si>
-  <si>
-    <t>94c</t>
-  </si>
-  <si>
-    <t>92c</t>
-  </si>
-  <si>
-    <t>90c</t>
-  </si>
-  <si>
-    <t>89c</t>
-  </si>
-  <si>
-    <t>87c</t>
-  </si>
-  <si>
-    <t>86c</t>
-  </si>
-  <si>
-    <t>78c</t>
-  </si>
-  <si>
-    <t>74c</t>
-  </si>
-  <si>
-    <t>166c</t>
-  </si>
-  <si>
-    <t>169c</t>
-  </si>
-  <si>
-    <t>173c</t>
-  </si>
-  <si>
-    <t>174c</t>
-  </si>
-  <si>
-    <t>180c</t>
-  </si>
-  <si>
-    <t>181c</t>
-  </si>
-  <si>
-    <t>182c</t>
-  </si>
-  <si>
-    <t>183c</t>
-  </si>
-  <si>
-    <t>184c</t>
-  </si>
-  <si>
-    <t>185c</t>
-  </si>
-  <si>
-    <t>187c</t>
-  </si>
-  <si>
-    <t>192c</t>
-  </si>
-  <si>
-    <t>199c</t>
-  </si>
-  <si>
-    <t>200c</t>
-  </si>
-  <si>
-    <t>202c</t>
-  </si>
-  <si>
-    <t>204c</t>
-  </si>
-  <si>
-    <t>207c</t>
-  </si>
-  <si>
-    <t>208c</t>
-  </si>
-  <si>
-    <t>210c</t>
-  </si>
-  <si>
-    <t>211c</t>
-  </si>
-  <si>
-    <t>212c</t>
-  </si>
-  <si>
-    <t>213c</t>
-  </si>
-  <si>
-    <t>214c</t>
-  </si>
-  <si>
-    <t>217c</t>
-  </si>
-  <si>
-    <t>219c</t>
-  </si>
-  <si>
-    <t>220c</t>
-  </si>
-  <si>
-    <t>227c</t>
-  </si>
-  <si>
-    <t>230c</t>
-  </si>
-  <si>
-    <t>232c</t>
-  </si>
-  <si>
-    <t>234c</t>
-  </si>
-  <si>
-    <t>235c</t>
-  </si>
-  <si>
-    <t>236c</t>
-  </si>
-  <si>
-    <t>238c</t>
-  </si>
-  <si>
-    <t>239c</t>
-  </si>
-  <si>
-    <t>242c</t>
-  </si>
-  <si>
-    <t>243c</t>
-  </si>
-  <si>
-    <t>245c</t>
-  </si>
-  <si>
-    <t>247c</t>
-  </si>
-  <si>
-    <t>248c</t>
-  </si>
-  <si>
-    <t>250c</t>
-  </si>
-  <si>
-    <t>286c</t>
-  </si>
-  <si>
-    <t>289c</t>
-  </si>
-  <si>
-    <t>292c</t>
-  </si>
-  <si>
-    <t>293c</t>
-  </si>
-  <si>
-    <t>294c</t>
-  </si>
-  <si>
-    <t>295c</t>
-  </si>
-  <si>
-    <t>297c</t>
-  </si>
-  <si>
-    <t>298c</t>
-  </si>
-  <si>
-    <t>299c</t>
-  </si>
-  <si>
-    <t>300c</t>
-  </si>
-  <si>
-    <t>301c</t>
-  </si>
-  <si>
-    <t>303c</t>
-  </si>
-  <si>
-    <t>305c</t>
-  </si>
-  <si>
-    <t>306c</t>
-  </si>
-  <si>
-    <t>309c</t>
-  </si>
-  <si>
-    <t>310c</t>
-  </si>
-  <si>
-    <t>311c</t>
-  </si>
-  <si>
-    <t>312c</t>
-  </si>
-  <si>
-    <t>313c</t>
-  </si>
-  <si>
-    <t>319c</t>
-  </si>
-  <si>
-    <t>321c</t>
-  </si>
-  <si>
-    <t>323c</t>
-  </si>
-  <si>
-    <t>326c</t>
-  </si>
-  <si>
-    <t>327c</t>
-  </si>
-  <si>
-    <t>333c</t>
-  </si>
-  <si>
-    <t>335c</t>
-  </si>
-  <si>
-    <t>340c</t>
-  </si>
-  <si>
-    <t>343c</t>
-  </si>
-  <si>
-    <t>344c</t>
-  </si>
-  <si>
-    <t>346c</t>
-  </si>
-  <si>
-    <t>348c</t>
-  </si>
-  <si>
-    <t>351c</t>
-  </si>
-  <si>
-    <t>352c</t>
-  </si>
-  <si>
-    <t>353c</t>
-  </si>
-  <si>
-    <t>355c</t>
-  </si>
-  <si>
-    <t>357c</t>
-  </si>
-  <si>
-    <t>358c</t>
-  </si>
-  <si>
-    <t>359c</t>
-  </si>
-  <si>
-    <t>360c</t>
-  </si>
-  <si>
-    <t>361c</t>
-  </si>
-  <si>
-    <t>431c</t>
-  </si>
-  <si>
-    <t>435c</t>
-  </si>
-  <si>
-    <t>436c</t>
-  </si>
-  <si>
-    <t>437c</t>
-  </si>
-  <si>
-    <t>440c</t>
-  </si>
-  <si>
-    <t>441c</t>
-  </si>
-  <si>
-    <t>447c</t>
-  </si>
-  <si>
-    <t>449c</t>
-  </si>
-  <si>
-    <t>451c</t>
-  </si>
-  <si>
-    <t>452c</t>
-  </si>
-  <si>
-    <t>453c</t>
-  </si>
-  <si>
-    <t>455c</t>
-  </si>
-  <si>
-    <t>459c</t>
-  </si>
-  <si>
-    <t>462c</t>
-  </si>
-  <si>
-    <t>464c</t>
-  </si>
-  <si>
-    <t>469c</t>
-  </si>
-  <si>
-    <t>477c</t>
-  </si>
-  <si>
-    <t>478c</t>
-  </si>
-  <si>
-    <t>480c</t>
-  </si>
-  <si>
-    <t>484c</t>
-  </si>
-  <si>
-    <t>490c</t>
-  </si>
-  <si>
-    <t>492c</t>
-  </si>
-  <si>
-    <t>495c</t>
-  </si>
-  <si>
-    <t>500c</t>
+    <t>1_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>44_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>46_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>51_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>52_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>53_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>54_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>55_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>57_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>58_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>63_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>66_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>70_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>73_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>121_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>116_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>115_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>114_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>112_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>104_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>99_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>96_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>94_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>89_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>87_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>78_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>74_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>166_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>169_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>173_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>174_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>180_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>181_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>182_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>183_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>184_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>185_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>187_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>199_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>202_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>204_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>207_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>208_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>210_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>211_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>212_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>213_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>214_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>217_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>219_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>220_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>227_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>230_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>232_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>234_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>235_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>236_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>238_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>239_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>242_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>243_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>245_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>247_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>248_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>250_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>286_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>289_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>292_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>293_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>294_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>295_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>297_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>298_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>299_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>301_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>303_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>305_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>306_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>309_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>310_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>311_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>312_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>313_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>319_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>321_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>323_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>326_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>327_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>333_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>335_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>340_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>343_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>344_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>346_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>348_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>351_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>352_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>353_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>355_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>357_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>358_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>359_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>360_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>361_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>431_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>435_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>436_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>437_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>440_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>441_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>447_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>449_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>451_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>452_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>453_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>455_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>459_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>462_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>464_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>469_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>477_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>478_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>480_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>484_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>490_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>492_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>495_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500_c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -807,8 +970,8 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A140" sqref="A140:XFD163"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
